--- a/biology/Botanique/Virginia's_Eastern_Shore/Virginia's_Eastern_Shore.xlsx
+++ b/biology/Botanique/Virginia's_Eastern_Shore/Virginia's_Eastern_Shore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virginia%27s_Eastern_Shore</t>
+          <t>Virginia's_Eastern_Shore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Virginia's Eastern Shore est une zone viticole américaine de 113 km², qui comprend la  côte est de la Virginie, ainsi que les comtés de Accomack et de Northampton.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virginia%27s_Eastern_Shore</t>
+          <t>Virginia's_Eastern_Shore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La topographie de cette région est principalement de basse altitude et va du niveau de la mer à 15 mètres d'altitude. La zone est située à l'extrémité sud de la péninsule de Delmarva. Le sol est sablonneux et profond.  
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virginia%27s_Eastern_Shore</t>
+          <t>Virginia's_Eastern_Shore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le climat dans la région est caractérisé par des étés et des hivers tempérés, qui sont fortement affectés par la baie de Chesapeake et l'océan Atlantique. 
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Virginia%27s_Eastern_Shore</t>
+          <t>Virginia's_Eastern_Shore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, les vignobles de Virginie répertorient deux établissements vinicoles commerciaux dans cette appellation, Bloxom Vineyard à Bloxom[1] et Chatham Vineyard[2] à Machipongo. À eux deux, ils produisent des vins secs et moelleux, ainsi que des vins rouges et blancs.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, les vignobles de Virginie répertorient deux établissements vinicoles commerciaux dans cette appellation, Bloxom Vineyard à Bloxom et Chatham Vineyard à Machipongo. À eux deux, ils produisent des vins secs et moelleux, ainsi que des vins rouges et blancs.
 </t>
         </is>
       </c>
